--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="43000" windowHeight="20280" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="0" windowWidth="34960" windowHeight="19020" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>剑士</t>
   </si>
@@ -292,6 +292,30 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>deathHand,heroBones,magicBox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood,brightRing,holyBook</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood,brightRing,brightAlloy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood,holyBook,brightAlloy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing,holyBook,brightAlloy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upkeep</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>deathHand,heroBones,soulStone</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -304,23 +328,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>confessionHood,brightRing,holyBook</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,brightRing,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upkeep</t>
+    <t>INT_recruitTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="776">
+  <cellStyleXfs count="788">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -480,6 +488,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1262,7 +1282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="776">
+  <cellStyles count="788">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1653,6 +1673,12 @@
     <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2036,6 +2062,12 @@
     <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2485,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S4" activeCellId="3" sqref="S23 S16 S8 S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2496,7 +2528,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2534,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>37</v>
@@ -2551,8 +2583,11 @@
       <c r="R1" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:19" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2607,8 +2642,11 @@
       <c r="R2" s="1">
         <v>200</v>
       </c>
+      <c r="S2" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    <row r="3" spans="1:19" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2663,8 +2701,11 @@
       <c r="R3" s="1">
         <v>340</v>
       </c>
+      <c r="S3" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+    <row r="4" spans="1:19" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,8 +2760,11 @@
       <c r="R4" s="1">
         <v>480</v>
       </c>
+      <c r="S4" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+    <row r="5" spans="1:19" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2775,8 +2819,11 @@
       <c r="R5" s="1">
         <v>220</v>
       </c>
+      <c r="S5" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+    <row r="6" spans="1:19" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2831,8 +2878,11 @@
       <c r="R6" s="1">
         <v>374</v>
       </c>
+      <c r="S6" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:19" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2887,8 +2937,11 @@
       <c r="R7" s="1">
         <v>528</v>
       </c>
+      <c r="S7" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="8" spans="1:19" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -2943,8 +2996,11 @@
       <c r="R8" s="1">
         <v>210</v>
       </c>
+      <c r="S8" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:19" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2999,8 +3055,11 @@
       <c r="R9" s="1">
         <v>357</v>
       </c>
+      <c r="S9" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="20" customHeight="1">
+    <row r="10" spans="1:19" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3055,8 +3114,11 @@
       <c r="R10" s="1">
         <v>504</v>
       </c>
+      <c r="S10" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="20" customHeight="1">
+    <row r="11" spans="1:19" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -3111,8 +3173,11 @@
       <c r="R11" s="1">
         <v>210</v>
       </c>
+      <c r="S11" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="20" customHeight="1">
+    <row r="12" spans="1:19" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -3167,8 +3232,11 @@
       <c r="R12" s="1">
         <v>357</v>
       </c>
+      <c r="S12" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="20" customHeight="1">
+    <row r="13" spans="1:19" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -3223,8 +3291,11 @@
       <c r="R13" s="1">
         <v>504</v>
       </c>
+      <c r="S13" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="20" customHeight="1">
+    <row r="14" spans="1:19" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -3279,8 +3350,11 @@
       <c r="R14" s="1">
         <v>400</v>
       </c>
+      <c r="S14" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="20" customHeight="1">
+    <row r="15" spans="1:19" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3335,8 +3409,11 @@
       <c r="R15" s="1">
         <v>680</v>
       </c>
+      <c r="S15" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="20" customHeight="1">
+    <row r="16" spans="1:19" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3391,8 +3468,11 @@
       <c r="R16" s="1">
         <v>960</v>
       </c>
+      <c r="S16" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" ht="20" customHeight="1">
+    <row r="17" spans="1:19" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3447,8 +3527,11 @@
       <c r="R17" s="1">
         <v>440</v>
       </c>
+      <c r="S17" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" ht="20" customHeight="1">
+    <row r="18" spans="1:19" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3503,8 +3586,11 @@
       <c r="R18" s="1">
         <v>748</v>
       </c>
+      <c r="S18" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" ht="20" customHeight="1">
+    <row r="19" spans="1:19" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3559,8 +3645,11 @@
       <c r="R19" s="1">
         <v>1056</v>
       </c>
+      <c r="S19" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" ht="20" customHeight="1">
+    <row r="20" spans="1:19" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -3615,8 +3704,11 @@
       <c r="R20" s="1">
         <v>800</v>
       </c>
+      <c r="S20" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" ht="20" customHeight="1">
+    <row r="21" spans="1:19" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3671,8 +3763,11 @@
       <c r="R21" s="1">
         <v>1360</v>
       </c>
+      <c r="S21" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" ht="20" customHeight="1">
+    <row r="22" spans="1:19" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -3727,8 +3822,11 @@
       <c r="R22" s="1">
         <v>1920</v>
       </c>
+      <c r="S22" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" ht="20" customHeight="1">
+    <row r="23" spans="1:19" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,8 +3881,11 @@
       <c r="R23" s="1">
         <v>1100</v>
       </c>
+      <c r="S23" s="1">
+        <v>190</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" ht="20" customHeight="1">
+    <row r="24" spans="1:19" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3839,8 +3940,11 @@
       <c r="R24" s="1">
         <v>1870</v>
       </c>
+      <c r="S24" s="1">
+        <v>190</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" ht="20" customHeight="1">
+    <row r="25" spans="1:19" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3895,50 +3999,53 @@
       <c r="R25" s="1">
         <v>2640</v>
       </c>
+      <c r="S25" s="1">
+        <v>190</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" ht="20" customHeight="1">
+    <row r="26" spans="1:19" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="20" customHeight="1">
+    <row r="27" spans="1:19" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="20" customHeight="1">
+    <row r="28" spans="1:19" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="20" customHeight="1">
+    <row r="29" spans="1:19" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="20" customHeight="1">
+    <row r="30" spans="1:19" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="20" customHeight="1">
+    <row r="31" spans="1:19" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="20" customHeight="1">
+    <row r="32" spans="1:19" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3966,10 +4073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3980,7 +4087,7 @@
     <col min="16" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4026,8 +4133,11 @@
       <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1">
+    <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4145,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4073,8 +4183,11 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
+      <c r="P2" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1">
+    <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4082,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4120,8 +4233,11 @@
       <c r="O3" s="1">
         <v>1</v>
       </c>
+      <c r="P3" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1">
+    <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4129,7 +4245,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4167,8 +4283,11 @@
       <c r="O4" s="1">
         <v>2</v>
       </c>
+      <c r="P4" s="1">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1">
+    <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -4176,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -4214,8 +4333,11 @@
       <c r="O5" s="1">
         <v>4</v>
       </c>
+      <c r="P5" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1">
+    <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4223,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4261,8 +4383,11 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
+      <c r="P6" s="1">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1">
+    <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4270,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -4308,8 +4433,11 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
+      <c r="P7" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1">
+    <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4317,7 +4445,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -4355,8 +4483,11 @@
       <c r="O8" s="1">
         <v>2</v>
       </c>
+      <c r="P8" s="1">
+        <v>240</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1">
+    <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -4364,7 +4495,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -4401,6 +4532,9 @@
       </c>
       <c r="O9" s="1">
         <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="0" windowWidth="34960" windowHeight="19020" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="37040" windowHeight="19760" tabRatio="119"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>剑士</t>
   </si>
@@ -329,6 +329,26 @@
   </si>
   <si>
     <t>INT_recruitTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatFood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="788">
+  <cellStyleXfs count="800">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -488,6 +508,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1282,7 +1314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="788">
+  <cellStyles count="800">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1679,6 +1711,12 @@
     <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2068,6 +2106,12 @@
     <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2517,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S4" activeCellId="3" sqref="S23 S16 S8 S4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2528,7 +2572,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2586,8 +2630,23 @@
       <c r="S1" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="20" customHeight="1">
+    <row r="2" spans="1:24" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2645,8 +2704,23 @@
       <c r="S2" s="1">
         <v>30</v>
       </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>167</v>
+      </c>
+      <c r="V2" s="1">
+        <v>100</v>
+      </c>
+      <c r="W2" s="1">
+        <v>67</v>
+      </c>
+      <c r="X2" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="20" customHeight="1">
+    <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2704,8 +2778,23 @@
       <c r="S3" s="1">
         <v>30</v>
       </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>284</v>
+      </c>
+      <c r="V3" s="1">
+        <v>170</v>
+      </c>
+      <c r="W3" s="1">
+        <v>114</v>
+      </c>
+      <c r="X3" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="20" customHeight="1">
+    <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2763,8 +2852,23 @@
       <c r="S4" s="1">
         <v>30</v>
       </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>400</v>
+      </c>
+      <c r="V4" s="1">
+        <v>240</v>
+      </c>
+      <c r="W4" s="1">
+        <v>160</v>
+      </c>
+      <c r="X4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="20" customHeight="1">
+    <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2822,8 +2926,23 @@
       <c r="S5" s="1">
         <v>35</v>
       </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>147</v>
+      </c>
+      <c r="V5" s="1">
+        <v>147</v>
+      </c>
+      <c r="W5" s="1">
+        <v>74</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="20" customHeight="1">
+    <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2881,8 +3000,23 @@
       <c r="S6" s="1">
         <v>35</v>
       </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>250</v>
+      </c>
+      <c r="V6" s="1">
+        <v>250</v>
+      </c>
+      <c r="W6" s="1">
+        <v>125</v>
+      </c>
+      <c r="X6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="20" customHeight="1">
+    <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2940,8 +3074,23 @@
       <c r="S7" s="1">
         <v>35</v>
       </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>352</v>
+      </c>
+      <c r="V7" s="1">
+        <v>352</v>
+      </c>
+      <c r="W7" s="1">
+        <v>176</v>
+      </c>
+      <c r="X7" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="20" customHeight="1">
+    <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -2999,8 +3148,23 @@
       <c r="S8" s="1">
         <v>50</v>
       </c>
+      <c r="T8" s="3">
+        <v>175</v>
+      </c>
+      <c r="U8" s="1">
+        <v>105</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>70</v>
+      </c>
+      <c r="X8" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="20" customHeight="1">
+    <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3058,8 +3222,23 @@
       <c r="S9" s="1">
         <v>50</v>
       </c>
+      <c r="T9" s="3">
+        <v>298</v>
+      </c>
+      <c r="U9" s="1">
+        <v>179</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>119</v>
+      </c>
+      <c r="X9" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="20" customHeight="1">
+    <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3296,23 @@
       <c r="S10" s="1">
         <v>50</v>
       </c>
+      <c r="T10" s="3">
+        <v>420</v>
+      </c>
+      <c r="U10" s="1">
+        <v>252</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>168</v>
+      </c>
+      <c r="X10" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" ht="20" customHeight="1">
+    <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -3176,8 +3370,23 @@
       <c r="S11" s="1">
         <v>55</v>
       </c>
+      <c r="T11" s="3">
+        <v>175</v>
+      </c>
+      <c r="U11" s="1">
+        <v>105</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>70</v>
+      </c>
+      <c r="X11" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" ht="20" customHeight="1">
+    <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -3235,8 +3444,23 @@
       <c r="S12" s="1">
         <v>55</v>
       </c>
+      <c r="T12" s="3">
+        <v>298</v>
+      </c>
+      <c r="U12" s="1">
+        <v>179</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>119</v>
+      </c>
+      <c r="X12" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="20" customHeight="1">
+    <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -3294,8 +3518,23 @@
       <c r="S13" s="1">
         <v>55</v>
       </c>
+      <c r="T13" s="3">
+        <v>420</v>
+      </c>
+      <c r="U13" s="1">
+        <v>252</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>168</v>
+      </c>
+      <c r="X13" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="20" customHeight="1">
+    <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -3353,8 +3592,23 @@
       <c r="S14" s="1">
         <v>110</v>
       </c>
+      <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>334</v>
+      </c>
+      <c r="W14" s="1">
+        <v>134</v>
+      </c>
+      <c r="X14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" ht="20" customHeight="1">
+    <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -3412,8 +3666,23 @@
       <c r="S15" s="1">
         <v>110</v>
       </c>
+      <c r="T15" s="3">
+        <v>340</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>567</v>
+      </c>
+      <c r="W15" s="1">
+        <v>227</v>
+      </c>
+      <c r="X15" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" ht="20" customHeight="1">
+    <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3471,8 +3740,23 @@
       <c r="S16" s="1">
         <v>110</v>
       </c>
+      <c r="T16" s="3">
+        <v>480</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>800</v>
+      </c>
+      <c r="W16" s="1">
+        <v>320</v>
+      </c>
+      <c r="X16" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" ht="20" customHeight="1">
+    <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3530,8 +3814,23 @@
       <c r="S17" s="1">
         <v>120</v>
       </c>
+      <c r="T17" s="3">
+        <v>294</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>294</v>
+      </c>
+      <c r="W17" s="1">
+        <v>147</v>
+      </c>
+      <c r="X17" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" ht="20" customHeight="1">
+    <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3589,8 +3888,23 @@
       <c r="S18" s="1">
         <v>120</v>
       </c>
+      <c r="T18" s="3">
+        <v>499</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>499</v>
+      </c>
+      <c r="W18" s="1">
+        <v>250</v>
+      </c>
+      <c r="X18" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" ht="20" customHeight="1">
+    <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3648,8 +3962,23 @@
       <c r="S19" s="1">
         <v>120</v>
       </c>
+      <c r="T19" s="3">
+        <v>704</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>704</v>
+      </c>
+      <c r="W19" s="1">
+        <v>352</v>
+      </c>
+      <c r="X19" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" ht="20" customHeight="1">
+    <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -3707,8 +4036,23 @@
       <c r="S20" s="1">
         <v>180</v>
       </c>
+      <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="1">
+        <v>400</v>
+      </c>
+      <c r="V20" s="1">
+        <v>134</v>
+      </c>
+      <c r="W20" s="1">
+        <v>267</v>
+      </c>
+      <c r="X20" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" ht="20" customHeight="1">
+    <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3766,8 +4110,23 @@
       <c r="S21" s="1">
         <v>180</v>
       </c>
+      <c r="T21" s="3">
+        <v>680</v>
+      </c>
+      <c r="U21" s="1">
+        <v>680</v>
+      </c>
+      <c r="V21" s="1">
+        <v>227</v>
+      </c>
+      <c r="W21" s="1">
+        <v>454</v>
+      </c>
+      <c r="X21" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" ht="20" customHeight="1">
+    <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -3825,8 +4184,23 @@
       <c r="S22" s="1">
         <v>180</v>
       </c>
+      <c r="T22" s="3">
+        <v>960</v>
+      </c>
+      <c r="U22" s="1">
+        <v>960</v>
+      </c>
+      <c r="V22" s="1">
+        <v>320</v>
+      </c>
+      <c r="W22" s="1">
+        <v>640</v>
+      </c>
+      <c r="X22" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" ht="20" customHeight="1">
+    <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -3884,8 +4258,23 @@
       <c r="S23" s="1">
         <v>190</v>
       </c>
+      <c r="T23" s="3">
+        <v>367</v>
+      </c>
+      <c r="U23" s="1">
+        <v>367</v>
+      </c>
+      <c r="V23" s="1">
+        <v>367</v>
+      </c>
+      <c r="W23" s="1">
+        <v>367</v>
+      </c>
+      <c r="X23" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" ht="20" customHeight="1">
+    <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3943,8 +4332,23 @@
       <c r="S24" s="1">
         <v>190</v>
       </c>
+      <c r="T24" s="3">
+        <v>624</v>
+      </c>
+      <c r="U24" s="1">
+        <v>624</v>
+      </c>
+      <c r="V24" s="1">
+        <v>624</v>
+      </c>
+      <c r="W24" s="1">
+        <v>624</v>
+      </c>
+      <c r="X24" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" ht="20" customHeight="1">
+    <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -4002,50 +4406,65 @@
       <c r="S25" s="1">
         <v>190</v>
       </c>
+      <c r="T25" s="3">
+        <v>880</v>
+      </c>
+      <c r="U25" s="1">
+        <v>880</v>
+      </c>
+      <c r="V25" s="1">
+        <v>880</v>
+      </c>
+      <c r="W25" s="1">
+        <v>880</v>
+      </c>
+      <c r="X25" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" ht="20" customHeight="1">
+    <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="20" customHeight="1">
+    <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="20" customHeight="1">
+    <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="20" customHeight="1">
+    <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="20" customHeight="1">
+    <row r="30" spans="1:24" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="20" customHeight="1">
+    <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="20" customHeight="1">
+    <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4075,7 +4494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
